--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Cornish.Fall.120920-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Cornish.Fall.120920-1.xlsx_with_dialog_acts.xlsx
@@ -891,12 +891,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1059,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1311,12 +1311,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1605,12 +1605,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1647,12 +1647,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1731,12 +1731,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1941,12 +1941,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2611,12 +2611,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2819,12 +2819,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3407,12 +3407,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3699,12 +3699,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3741,12 +3741,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3867,12 +3867,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4455,12 +4455,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5001,12 +5001,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5383,12 +5383,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5887,12 +5887,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6055,12 +6055,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6097,12 +6097,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6181,12 +6181,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6223,12 +6223,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6475,12 +6475,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7063,12 +7063,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7105,12 +7105,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7189,12 +7189,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7565,12 +7565,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7985,12 +7985,12 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9117,12 +9117,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9579,12 +9579,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9999,12 +9999,12 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10293,12 +10293,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10461,12 +10461,12 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10711,12 +10711,12 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11257,12 +11257,12 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11299,12 +11299,12 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11467,12 +11467,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12853,12 +12853,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
